--- a/src/assets/forms/D2Z Upload File Template.xlsx
+++ b/src/assets/forms/D2Z Upload File Template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dwayne\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F71952-6545-40A0-85C1-3907E4B77989}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Upload File With Validation" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Reference number</t>
   </si>
@@ -151,13 +145,22 @@
   </si>
   <si>
     <t>1PS</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Label Sender Name</t>
+  </si>
+  <si>
+    <t>Delivery Instructions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -817,7 +820,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1011,19 +1014,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
@@ -1038,21 +1043,23 @@
     <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1122,12 +1129,18 @@
       <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="X1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" s="4">
         <v>3346</v>
       </c>
@@ -1197,7 +1210,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1267,7 +1280,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1296,7 +1309,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="18.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1325,7 +1338,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1354,7 +1367,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1383,7 +1396,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1412,7 +1425,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1441,7 +1454,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/src/assets/forms/D2Z Upload File Template.xlsx
+++ b/src/assets/forms/D2Z Upload File Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahameda/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D33714-8670-B146-9456-28AFB80BE77B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upload File With Validation" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Reference number</t>
   </si>
@@ -57,9 +63,6 @@
     <t>Consignee Name</t>
   </si>
   <si>
-    <t>Consignee Address</t>
-  </si>
-  <si>
     <t>Consignee Suburb</t>
   </si>
   <si>
@@ -93,21 +96,6 @@
     <t>Consignee Company</t>
   </si>
   <si>
-    <t>Declan  Muldoon</t>
-  </si>
-  <si>
-    <t>72 Daws Rd  Edwardstown</t>
-  </si>
-  <si>
-    <t>Edwardstown</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>Stereo</t>
-  </si>
-  <si>
     <t>AUD</t>
   </si>
   <si>
@@ -120,33 +108,9 @@
     <t>MY</t>
   </si>
   <si>
-    <t>ABG556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nathan oakley </t>
-  </si>
-  <si>
-    <t xml:space="preserve">141 forrest parade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosebery </t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>0832</t>
-  </si>
-  <si>
-    <t>Test company</t>
-  </si>
-  <si>
     <t>1 fake st</t>
   </si>
   <si>
-    <t>1PS</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -154,13 +118,58 @@
   </si>
   <si>
     <t>Delivery Instructions</t>
+  </si>
+  <si>
+    <t>1PM</t>
+  </si>
+  <si>
+    <t>Car Parts</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>Ctest1902197</t>
+  </si>
+  <si>
+    <t>Ctest1902198</t>
+  </si>
+  <si>
+    <t>Consignee Address 1</t>
+  </si>
+  <si>
+    <t>Consignee Address 2</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Peter Rover</t>
+  </si>
+  <si>
+    <t>18 fake st</t>
+  </si>
+  <si>
+    <t>21 main st</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Fake Company</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +305,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -650,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,11 +678,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -768,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -820,7 +846,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1014,273 +1040,268 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="3"/>
+    </row>
+    <row r="2" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4">
+        <v>99</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="8">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N2" s="4">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="8">
+        <v>47301</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4">
+        <v>99</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="8">
+        <v>47301</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="3"/>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="4">
-        <v>3346</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4">
-        <v>5039</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="4">
-        <v>139.99</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="N2" s="4">
-        <v>10</v>
-      </c>
-      <c r="O2" s="4">
-        <v>10</v>
-      </c>
-      <c r="P2" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="4">
-        <v>47301</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="4">
-        <v>98.99</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="N3" s="4">
-        <v>10</v>
-      </c>
-      <c r="O3" s="4">
-        <v>10</v>
-      </c>
-      <c r="P3" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="4">
-        <v>47301</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1308,182 +1329,10 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" ht="18.95" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
+      <c r="AB4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/forms/D2Z Upload File Template.xlsx
+++ b/src/assets/forms/D2Z Upload File Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahameda/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\risha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D33714-8670-B146-9456-28AFB80BE77B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA34920B-9C31-46FF-B68F-14C8171BCB69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upload File With Validation" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Reference number</t>
   </si>
@@ -129,12 +129,6 @@
     <t>VIC</t>
   </si>
   <si>
-    <t>Ctest1902197</t>
-  </si>
-  <si>
-    <t>Ctest1902198</t>
-  </si>
-  <si>
     <t>Consignee Address 1</t>
   </si>
   <si>
@@ -163,13 +157,25 @@
   </si>
   <si>
     <t>Fake Company</t>
+  </si>
+  <si>
+    <t>Consignee Email</t>
+  </si>
+  <si>
+    <t>qwe@gmail.com</t>
+  </si>
+  <si>
+    <t>Rtest1902197</t>
+  </si>
+  <si>
+    <t>Rtest1902198</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +325,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +518,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -623,7 +643,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -666,8 +686,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,23 +699,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -728,6 +748,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1051,41 +1072,42 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="1"/>
+    <col min="29" max="29" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1096,10 +1118,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
@@ -1167,141 +1189,145 @@
       <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="3"/>
+      <c r="AB1" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>99</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="4">
-        <v>99</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4">
-        <v>3</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="7">
+        <v>47301</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="8">
-        <v>47301</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>3000</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3">
         <v>99</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>1</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="S3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="7">
         <v>47301</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1332,7 +1358,10 @@
       <c r="AB4" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AB2" r:id="rId1" xr:uid="{C2C87079-9990-4002-9B0E-F57E428CD131}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
 </worksheet>
 </file>